--- a/01_開発プロセス/04_外部設計/Gen5B+70W基板搭載_電流センサ外部設計.xlsx
+++ b/01_開発プロセス/04_外部設計/Gen5B+70W基板搭載_電流センサ外部設計.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ob-tmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>電流センサ外部設計</t>
     <rPh sb="0" eb="2">
@@ -195,13 +191,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -211,10 +204,13 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,243 +2634,239 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="5" t="s">
-        <v>1</v>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9"/>
-      <c r="BR3" s="9"/>
-      <c r="BS3" s="9"/>
-      <c r="BT3" s="9"/>
-      <c r="BU3" s="9"/>
-      <c r="BV3" s="9"/>
-      <c r="BW3" s="9"/>
-      <c r="BX3" s="9"/>
-      <c r="BY3" s="9"/>
-      <c r="BZ3" s="9"/>
-      <c r="CA3" s="9"/>
-      <c r="CB3" s="9"/>
-      <c r="CC3" s="9"/>
-      <c r="CD3" s="9"/>
-      <c r="CE3" s="9"/>
-      <c r="CF3" s="9"/>
-      <c r="CG3" s="9"/>
-      <c r="CH3" s="9"/>
-      <c r="CI3" s="9"/>
-      <c r="CJ3" s="9"/>
-      <c r="CK3" s="9"/>
-      <c r="CL3" s="9"/>
-      <c r="CM3" s="9"/>
-      <c r="CN3" s="9"/>
-      <c r="CO3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
     </row>
     <row r="4" spans="5:101" x14ac:dyDescent="0.15">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-      <c r="BL4" s="9"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
-      <c r="BU4" s="9"/>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="9"/>
-      <c r="CE4" s="9"/>
-      <c r="CF4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="9"/>
-      <c r="CI4" s="9"/>
-      <c r="CJ4" s="9"/>
-      <c r="CK4" s="9"/>
-      <c r="CL4" s="9"/>
-      <c r="CM4" s="9"/>
-      <c r="CN4" s="9"/>
-      <c r="CO4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
     </row>
     <row r="5" spans="5:101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="BZ5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="6"/>
-      <c r="CB5" s="6"/>
-      <c r="CC5" s="6"/>
-      <c r="CD5" s="6"/>
-      <c r="CE5" s="6"/>
-      <c r="CF5" s="6"/>
-      <c r="CG5" s="6"/>
-      <c r="CH5" s="6"/>
-      <c r="CI5" s="6"/>
-      <c r="CJ5" s="6"/>
-      <c r="CK5" s="6"/>
-      <c r="CL5" s="6"/>
-      <c r="CM5" s="6"/>
-      <c r="CN5" s="6"/>
-      <c r="CO5" s="6"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
     </row>
     <row r="6" spans="5:101" x14ac:dyDescent="0.15">
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="BZ6" s="7">
-        <v>42638</v>
-      </c>
-      <c r="CA6" s="7"/>
-      <c r="CB6" s="7"/>
-      <c r="CC6" s="7"/>
-      <c r="CD6" s="7"/>
-      <c r="CE6" s="7"/>
-      <c r="CF6" s="7"/>
-      <c r="CG6" s="7"/>
-      <c r="CH6" s="7"/>
-      <c r="CI6" s="7"/>
-      <c r="CJ6" s="7"/>
-      <c r="CK6" s="7"/>
-      <c r="CL6" s="7"/>
-      <c r="CM6" s="7"/>
-      <c r="CN6" s="7"/>
-      <c r="CO6" s="7"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+      <c r="CO6" s="6"/>
     </row>
     <row r="7" spans="5:101" x14ac:dyDescent="0.15">
       <c r="E7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="5:101" x14ac:dyDescent="0.15">
       <c r="M11" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -2894,108 +2886,108 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="5:101" x14ac:dyDescent="0.15">
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="3"/>
-      <c r="BZ12" s="3"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="3"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-      <c r="CK12" s="3"/>
-      <c r="CL12" s="3"/>
-      <c r="CM12" s="3"/>
-      <c r="CN12" s="3"/>
-      <c r="CO12" s="3"/>
-      <c r="CP12" s="3"/>
-      <c r="CQ12" s="3"/>
-      <c r="CR12" s="3"/>
-      <c r="CS12" s="3"/>
-      <c r="CT12" s="3"/>
-      <c r="CU12" s="3"/>
-      <c r="CV12" s="3"/>
-      <c r="CW12" s="3"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="7"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="7"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="7"/>
+      <c r="CC12" s="7"/>
+      <c r="CD12" s="7"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="7"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="7"/>
+      <c r="CI12" s="7"/>
+      <c r="CJ12" s="7"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="7"/>
+      <c r="CM12" s="7"/>
+      <c r="CN12" s="7"/>
+      <c r="CO12" s="7"/>
+      <c r="CP12" s="7"/>
+      <c r="CQ12" s="7"/>
+      <c r="CR12" s="7"/>
+      <c r="CS12" s="7"/>
+      <c r="CT12" s="7"/>
+      <c r="CU12" s="7"/>
+      <c r="CV12" s="7"/>
+      <c r="CW12" s="7"/>
     </row>
     <row r="13" spans="5:101" x14ac:dyDescent="0.15">
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-      <c r="BX13" s="3"/>
-      <c r="BY13" s="3"/>
-      <c r="BZ13" s="3"/>
-      <c r="CA13" s="3"/>
-      <c r="CB13" s="3"/>
-      <c r="CC13" s="3"/>
-      <c r="CD13" s="3"/>
-      <c r="CE13" s="3"/>
-      <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
-      <c r="CH13" s="3"/>
-      <c r="CI13" s="3"/>
-      <c r="CJ13" s="3"/>
-      <c r="CK13" s="3"/>
-      <c r="CL13" s="3"/>
-      <c r="CM13" s="3"/>
-      <c r="CN13" s="3"/>
-      <c r="CO13" s="3"/>
-      <c r="CP13" s="3"/>
-      <c r="CQ13" s="3"/>
-      <c r="CR13" s="3"/>
-      <c r="CS13" s="3"/>
-      <c r="CT13" s="3"/>
-      <c r="CU13" s="3"/>
-      <c r="CV13" s="3"/>
-      <c r="CW13" s="3"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="7"/>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7"/>
+      <c r="CJ13" s="7"/>
+      <c r="CK13" s="7"/>
+      <c r="CL13" s="7"/>
+      <c r="CM13" s="7"/>
+      <c r="CN13" s="7"/>
+      <c r="CO13" s="7"/>
+      <c r="CP13" s="7"/>
+      <c r="CQ13" s="7"/>
+      <c r="CR13" s="7"/>
+      <c r="CS13" s="7"/>
+      <c r="CT13" s="7"/>
+      <c r="CU13" s="7"/>
+      <c r="CV13" s="7"/>
+      <c r="CW13" s="7"/>
     </row>
     <row r="19" spans="40:70" x14ac:dyDescent="0.15">
       <c r="AT19" s="4"/>
@@ -3014,30 +3006,30 @@
       </c>
       <c r="AO21" s="4"/>
       <c r="BG21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="40:70" x14ac:dyDescent="0.15">
       <c r="AV23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="40:70" x14ac:dyDescent="0.15">
       <c r="AY24" s="2"/>
       <c r="BR24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M11:AC11"/>
+    <mergeCell ref="E3:AW3"/>
     <mergeCell ref="AN21:AO21"/>
     <mergeCell ref="BZ5:CO5"/>
     <mergeCell ref="BZ6:CO6"/>
     <mergeCell ref="AT19:BB19"/>
     <mergeCell ref="AZ12:CW12"/>
     <mergeCell ref="AZ13:CW13"/>
-    <mergeCell ref="M11:AC11"/>
-    <mergeCell ref="E3:AW3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
